--- a/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
+++ b/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeEvn\GiamSatTrungAp\GiamSatTrungAp_BE\EVN.Api\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87565DA9-EB07-4228-96B4-547138931350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B801B8-0BA9-4C8C-87BE-76AFB9756953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CF2630E-7C15-40D4-B52D-67F942E1F7DD}"/>
   </bookViews>
@@ -378,8 +378,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -417,41 +450,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -828,7 +828,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,154 +845,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="46" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31" t="s">
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1001,38 +1001,38 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="33"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
@@ -1319,7 +1319,7 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1339,7 +1339,7 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1359,7 +1359,7 @@
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1379,7 +1379,7 @@
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1399,7 +1399,7 @@
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -1419,7 +1419,7 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -1439,7 +1439,7 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -1459,7 +1459,7 @@
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -1479,7 +1479,7 @@
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1499,7 +1499,7 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -1519,7 +1519,7 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1539,7 +1539,7 @@
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -1559,7 +1559,7 @@
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -1579,7 +1579,7 @@
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -1599,7 +1599,7 @@
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -1619,7 +1619,7 @@
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -1639,7 +1639,7 @@
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -1659,7 +1659,7 @@
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -1679,7 +1679,7 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -1700,13 +1700,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:R6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:J7"/>
@@ -1718,6 +1711,13 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
+++ b/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeEvn\GiamSatTrungAp\GiamSatTrungAp_BE\EVN.Api\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B801B8-0BA9-4C8C-87BE-76AFB9756953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC695749-9F30-43A4-81BB-0259E003285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CF2630E-7C15-40D4-B52D-67F942E1F7DD}"/>
   </bookViews>
@@ -339,22 +339,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
@@ -369,14 +353,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,44 +425,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -828,7 +830,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,154 +847,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="33" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="36" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42" t="s">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1001,38 +1003,38 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="44"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="44"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
@@ -1059,647 +1061,654 @@
       </c>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:R6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:J7"/>
@@ -1711,13 +1720,6 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
+++ b/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeEvn\GiamSatTrungAp\GiamSatTrungAp_BE\EVN.Api\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D91B9C-2EA0-4E51-A45A-6BC3A0BD6440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA501C93-D27D-4CCB-ABC1-FF0A511E458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CF2630E-7C15-40D4-B52D-67F942E1F7DD}"/>
   </bookViews>
@@ -327,9 +327,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,10 +413,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,65 +425,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,49 +452,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +827,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,142 +844,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="24" t="s">
         <v>11</v>
       </c>
@@ -999,43 +987,43 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="17" t="s">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="26"/>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="26"/>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="24" t="s">
@@ -1043,677 +1031,677 @@
       </c>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30" t="s">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-    </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-    </row>
-    <row r="15" spans="1:18" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
+++ b/EVN.Api/Templates/BaoCaoTongHopTienDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeEvn\GiamSatTrungAp\GiamSatTrungAp_BE\EVN.Api\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA501C93-D27D-4CCB-ABC1-FF0A511E458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E4A44-BD81-444F-A42B-C5639667D476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CF2630E-7C15-40D4-B52D-67F942E1F7DD}"/>
   </bookViews>
@@ -327,7 +327,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -386,71 +386,80 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -827,7 +836,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K7" sqref="K7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,123 +853,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="38" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="39" t="s">
@@ -974,30 +983,30 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="24" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1006,38 +1015,38 @@
       <c r="H8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="26"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="26"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
@@ -1705,13 +1714,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:R6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:J7"/>
@@ -1723,6 +1725,13 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
